--- a/artfynd/A 51340-2019.xlsx
+++ b/artfynd/A 51340-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY13"/>
+  <dimension ref="A1:AY16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>89540105</v>
+        <v>98450400</v>
       </c>
       <c r="B2" t="n">
-        <v>9009</v>
+        <v>90676</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,43 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>101603</v>
+        <v>5966</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Furustumpbagge</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Plegaderus saucius</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Erichson, 1834</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Lortmossen, Vstm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>531886.6182379224</v>
+        <v>532384.3961978648</v>
       </c>
       <c r="R2" t="n">
-        <v>6623214.633886824</v>
+        <v>6623456.331745383</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -759,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2020-11-25</t>
+          <t>2021-10-08</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -769,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2020-11-25</t>
+          <t>2021-10-08</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -777,11 +768,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>inventering för Lst</t>
-        </is>
-      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
@@ -793,30 +779,25 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>äldre tallskog</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>stående nydöd tall</t>
+          <t>Äldre tallskog</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Olof Hedgren</t>
+          <t>Jacob Rudhe</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Olof Hedgren</t>
+          <t>Jacob Rudhe, Mårten Berglind</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>98450400</v>
+        <v>98450398</v>
       </c>
       <c r="B3" t="n">
         <v>90676</v>
@@ -856,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>532384.3961978648</v>
+        <v>532412.1361300815</v>
       </c>
       <c r="R3" t="n">
-        <v>6623456.331745383</v>
+        <v>6623401.632868396</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -933,7 +914,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98450398</v>
+        <v>98450399</v>
       </c>
       <c r="B4" t="n">
         <v>90676</v>
@@ -973,10 +954,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>532412.1361300815</v>
+        <v>532422.5980015037</v>
       </c>
       <c r="R4" t="n">
-        <v>6623401.632868396</v>
+        <v>6623417.853099325</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1050,10 +1031,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>98450410</v>
+        <v>98450403</v>
       </c>
       <c r="B5" t="n">
-        <v>90653</v>
+        <v>90676</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1062,25 +1043,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1090,10 +1071,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>531846.2572265175</v>
+        <v>532144.1002281209</v>
       </c>
       <c r="R5" t="n">
-        <v>6623210.760434012</v>
+        <v>6623335.298360098</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1167,7 +1148,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>98450399</v>
+        <v>98450402</v>
       </c>
       <c r="B6" t="n">
         <v>90676</v>
@@ -1207,10 +1188,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>532422.5980015037</v>
+        <v>532224.744860352</v>
       </c>
       <c r="R6" t="n">
-        <v>6623417.853099325</v>
+        <v>6623351.620086531</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1284,7 +1265,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>98450403</v>
+        <v>98450401</v>
       </c>
       <c r="B7" t="n">
         <v>90676</v>
@@ -1324,10 +1305,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>532144.1002281209</v>
+        <v>532300.0021253217</v>
       </c>
       <c r="R7" t="n">
-        <v>6623335.298360098</v>
+        <v>6623465.176121892</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1401,10 +1382,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>98450402</v>
+        <v>112379079</v>
       </c>
       <c r="B8" t="n">
-        <v>90676</v>
+        <v>90800</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1413,25 +1394,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1441,13 +1422,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>532224.744860352</v>
+        <v>532226</v>
       </c>
       <c r="R8" t="n">
-        <v>6623351.620086531</v>
+        <v>6623334</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1471,22 +1452,12 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2021-10-08</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2021-10-08</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1497,31 +1468,26 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>Äldre tallskog</t>
-        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Jacob Rudhe</t>
+          <t>Mikael Hagström</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Jacob Rudhe, Mårten Berglind</t>
+          <t>Mikael Hagström</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>98450401</v>
+        <v>112379172</v>
       </c>
       <c r="B9" t="n">
-        <v>90676</v>
+        <v>90800</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1530,25 +1496,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1558,13 +1524,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>532300.0021253217</v>
+        <v>532294</v>
       </c>
       <c r="R9" t="n">
-        <v>6623465.176121892</v>
+        <v>6623516</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1588,22 +1554,12 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2021-10-08</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2021-10-08</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1614,31 +1570,26 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>Äldre tallskog</t>
-        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Jacob Rudhe</t>
+          <t>Mikael Hagström</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Jacob Rudhe, Mårten Berglind</t>
+          <t>Mikael Hagström</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>98450406</v>
+        <v>112379171</v>
       </c>
       <c r="B10" t="n">
-        <v>90653</v>
+        <v>90800</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1675,13 +1626,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>531960.9745575936</v>
+        <v>532169</v>
       </c>
       <c r="R10" t="n">
-        <v>6623258.115823878</v>
+        <v>6623457</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1705,22 +1656,12 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2021-10-08</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2021-10-08</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1731,31 +1672,26 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>Äldre tallskog</t>
-        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Jacob Rudhe</t>
+          <t>Mikael Hagström</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Jacob Rudhe, Mårten Berglind</t>
+          <t>Mikael Hagström</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>98450405</v>
+        <v>89540105</v>
       </c>
       <c r="B11" t="n">
-        <v>90653</v>
+        <v>9009</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1764,38 +1700,47 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4364</v>
+        <v>101603</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Furustumpbagge</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Plegaderus saucius</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>Erichson, 1834</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Lortmossen, Vstm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>532001.7303159089</v>
+        <v>531886.6182379224</v>
       </c>
       <c r="R11" t="n">
-        <v>6623333.569402254</v>
+        <v>6623214.633886824</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1822,7 +1767,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2021-10-08</t>
+          <t>2020-11-25</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1832,7 +1777,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2021-10-08</t>
+          <t>2020-11-25</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1840,6 +1785,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>inventering för Lst</t>
+        </is>
+      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
@@ -1851,28 +1801,33 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>Äldre tallskog</t>
+          <t>äldre tallskog</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>stående nydöd tall</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Jacob Rudhe</t>
+          <t>Olof Hedgren</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Jacob Rudhe, Mårten Berglind</t>
+          <t>Olof Hedgren</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>98450404</v>
+        <v>98450410</v>
       </c>
       <c r="B12" t="n">
-        <v>90676</v>
+        <v>90653</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1881,25 +1836,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1909,10 +1864,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>532106.7513082939</v>
+        <v>531846.2572265175</v>
       </c>
       <c r="R12" t="n">
-        <v>6623274.994264505</v>
+        <v>6623210.760434012</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1986,10 +1941,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>98450407</v>
+        <v>98450406</v>
       </c>
       <c r="B13" t="n">
-        <v>90676</v>
+        <v>90653</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1998,25 +1953,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2026,10 +1981,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>531962.2047132516</v>
+        <v>531960.9745575936</v>
       </c>
       <c r="R13" t="n">
-        <v>6623232.419310441</v>
+        <v>6623258.115823878</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2100,6 +2055,357 @@
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>98450405</v>
+      </c>
+      <c r="B14" t="n">
+        <v>90653</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Lortmossen, Vstm</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>532001.7303159089</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6623333.569402254</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Skinnskatteberg</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Skinnskatteberg</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>Äldre tallskog</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Jacob Rudhe</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Jacob Rudhe, Mårten Berglind</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>98450404</v>
+      </c>
+      <c r="B15" t="n">
+        <v>90676</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Lortmossen, Vstm</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>532106.7513082939</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6623274.994264505</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Skinnskatteberg</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Skinnskatteberg</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>Äldre tallskog</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Jacob Rudhe</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Jacob Rudhe, Mårten Berglind</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>98450407</v>
+      </c>
+      <c r="B16" t="n">
+        <v>90676</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Lortmossen, Vstm</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>531962.2047132516</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6623232.419310441</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Skinnskatteberg</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Skinnskatteberg</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>Äldre tallskog</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Jacob Rudhe</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Jacob Rudhe, Mårten Berglind</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 51340-2019.xlsx
+++ b/artfynd/A 51340-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>98450400</v>
+        <v>89540105</v>
       </c>
       <c r="B2" t="n">
-        <v>90676</v>
+        <v>9009</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,43 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5966</v>
+        <v>101603</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Furustumpbagge</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Plegaderus saucius</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>Erichson, 1834</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Lortmossen, Vstm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>532384.3961978648</v>
+        <v>531886.6182379224</v>
       </c>
       <c r="R2" t="n">
-        <v>6623456.331745383</v>
+        <v>6623214.633886824</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +759,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2021-10-08</t>
+          <t>2020-11-25</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +769,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2021-10-08</t>
+          <t>2020-11-25</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -768,6 +777,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>inventering för Lst</t>
+        </is>
+      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
@@ -779,25 +793,30 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>Äldre tallskog</t>
+          <t>äldre tallskog</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>stående nydöd tall</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Jacob Rudhe</t>
+          <t>Olof Hedgren</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Jacob Rudhe, Mårten Berglind</t>
+          <t>Olof Hedgren</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>98450398</v>
+        <v>98450400</v>
       </c>
       <c r="B3" t="n">
         <v>90676</v>
@@ -837,10 +856,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>532412.1361300815</v>
+        <v>532384.3961978648</v>
       </c>
       <c r="R3" t="n">
-        <v>6623401.632868396</v>
+        <v>6623456.331745383</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -914,7 +933,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98450399</v>
+        <v>98450398</v>
       </c>
       <c r="B4" t="n">
         <v>90676</v>
@@ -954,10 +973,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>532422.5980015037</v>
+        <v>532412.1361300815</v>
       </c>
       <c r="R4" t="n">
-        <v>6623417.853099325</v>
+        <v>6623401.632868396</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1031,10 +1050,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>98450403</v>
+        <v>98450410</v>
       </c>
       <c r="B5" t="n">
-        <v>90676</v>
+        <v>90653</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1043,25 +1062,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1071,10 +1090,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>532144.1002281209</v>
+        <v>531846.2572265175</v>
       </c>
       <c r="R5" t="n">
-        <v>6623335.298360098</v>
+        <v>6623210.760434012</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1148,7 +1167,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>98450402</v>
+        <v>98450399</v>
       </c>
       <c r="B6" t="n">
         <v>90676</v>
@@ -1188,10 +1207,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>532224.744860352</v>
+        <v>532422.5980015037</v>
       </c>
       <c r="R6" t="n">
-        <v>6623351.620086531</v>
+        <v>6623417.853099325</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1265,7 +1284,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>98450401</v>
+        <v>98450403</v>
       </c>
       <c r="B7" t="n">
         <v>90676</v>
@@ -1305,10 +1324,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>532300.0021253217</v>
+        <v>532144.1002281209</v>
       </c>
       <c r="R7" t="n">
-        <v>6623465.176121892</v>
+        <v>6623335.298360098</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1382,10 +1401,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112379079</v>
+        <v>98450402</v>
       </c>
       <c r="B8" t="n">
-        <v>90800</v>
+        <v>90676</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1394,25 +1413,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1422,13 +1441,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>532226</v>
+        <v>532224.744860352</v>
       </c>
       <c r="R8" t="n">
-        <v>6623334</v>
+        <v>6623351.620086531</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1452,12 +1471,22 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1468,26 +1497,31 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>Äldre tallskog</t>
+        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Mikael Hagström</t>
+          <t>Jacob Rudhe</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Mikael Hagström</t>
+          <t>Jacob Rudhe, Mårten Berglind</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112379172</v>
+        <v>98450401</v>
       </c>
       <c r="B9" t="n">
-        <v>90800</v>
+        <v>90676</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1496,25 +1530,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1524,13 +1558,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>532294</v>
+        <v>532300.0021253217</v>
       </c>
       <c r="R9" t="n">
-        <v>6623516</v>
+        <v>6623465.176121892</v>
       </c>
       <c r="S9" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1554,12 +1588,22 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1570,26 +1614,31 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>Äldre tallskog</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Mikael Hagström</t>
+          <t>Jacob Rudhe</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Mikael Hagström</t>
+          <t>Jacob Rudhe, Mårten Berglind</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112379171</v>
+        <v>98450406</v>
       </c>
       <c r="B10" t="n">
-        <v>90800</v>
+        <v>90653</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1626,13 +1675,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>532169</v>
+        <v>531960.9745575936</v>
       </c>
       <c r="R10" t="n">
-        <v>6623457</v>
+        <v>6623258.115823878</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1656,12 +1705,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1672,26 +1731,31 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>Äldre tallskog</t>
+        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Mikael Hagström</t>
+          <t>Jacob Rudhe</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Mikael Hagström</t>
+          <t>Jacob Rudhe, Mårten Berglind</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>89540105</v>
+        <v>98450405</v>
       </c>
       <c r="B11" t="n">
-        <v>9009</v>
+        <v>90653</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1700,47 +1764,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>101603</v>
+        <v>4364</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Furustumpbagge</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Plegaderus saucius</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Erichson, 1834</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Lortmossen, Vstm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>531886.6182379224</v>
+        <v>532001.7303159089</v>
       </c>
       <c r="R11" t="n">
-        <v>6623214.633886824</v>
+        <v>6623333.569402254</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1767,7 +1822,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2020-11-25</t>
+          <t>2021-10-08</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1777,7 +1832,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2020-11-25</t>
+          <t>2021-10-08</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1785,11 +1840,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>inventering för Lst</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
@@ -1801,33 +1851,28 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>äldre tallskog</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>stående nydöd tall</t>
+          <t>Äldre tallskog</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Olof Hedgren</t>
+          <t>Jacob Rudhe</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Olof Hedgren</t>
+          <t>Jacob Rudhe, Mårten Berglind</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>98450410</v>
+        <v>98450404</v>
       </c>
       <c r="B12" t="n">
-        <v>90653</v>
+        <v>90676</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1836,25 +1881,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1864,10 +1909,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>531846.2572265175</v>
+        <v>532106.7513082939</v>
       </c>
       <c r="R12" t="n">
-        <v>6623210.760434012</v>
+        <v>6623274.994264505</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1941,10 +1986,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>98450406</v>
+        <v>98450407</v>
       </c>
       <c r="B13" t="n">
-        <v>90653</v>
+        <v>90676</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1953,25 +1998,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1981,10 +2026,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>531960.9745575936</v>
+        <v>531962.2047132516</v>
       </c>
       <c r="R13" t="n">
-        <v>6623258.115823878</v>
+        <v>6623232.419310441</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2058,10 +2103,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>98450405</v>
+        <v>112379079</v>
       </c>
       <c r="B14" t="n">
-        <v>90653</v>
+        <v>90814</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2098,13 +2143,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>532001.7303159089</v>
+        <v>532226</v>
       </c>
       <c r="R14" t="n">
-        <v>6623333.569402254</v>
+        <v>6623334</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2128,22 +2173,12 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2021-10-08</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2021-10-08</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2154,31 +2189,26 @@
       </c>
       <c r="AG14" t="b">
         <v>0</v>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>Äldre tallskog</t>
-        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Jacob Rudhe</t>
+          <t>Mikael Hagström</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Jacob Rudhe, Mårten Berglind</t>
+          <t>Mikael Hagström</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>98450404</v>
+        <v>112379171</v>
       </c>
       <c r="B15" t="n">
-        <v>90676</v>
+        <v>90814</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2187,25 +2217,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2215,13 +2245,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>532106.7513082939</v>
+        <v>532169</v>
       </c>
       <c r="R15" t="n">
-        <v>6623274.994264505</v>
+        <v>6623457</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2245,22 +2275,12 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2021-10-08</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2021-10-08</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2271,31 +2291,26 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>Äldre tallskog</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Jacob Rudhe</t>
+          <t>Mikael Hagström</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Jacob Rudhe, Mårten Berglind</t>
+          <t>Mikael Hagström</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>98450407</v>
+        <v>112379172</v>
       </c>
       <c r="B16" t="n">
-        <v>90676</v>
+        <v>90814</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2304,25 +2319,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2332,13 +2347,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>531962.2047132516</v>
+        <v>532294</v>
       </c>
       <c r="R16" t="n">
-        <v>6623232.419310441</v>
+        <v>6623516</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2362,22 +2377,12 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2021-10-08</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2021-10-08</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2388,21 +2393,16 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>Äldre tallskog</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Jacob Rudhe</t>
+          <t>Mikael Hagström</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Jacob Rudhe, Mårten Berglind</t>
+          <t>Mikael Hagström</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
